--- a/similarities/split_global/harmonic_similarity_timestamps_315.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_315.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:20.740000', '0:00:23.800000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:45.320000', '0:03:52.800000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=20.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=225.32']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A#:min', 'F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F:min/5', 'C:min', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:47.320000', '0:00:52.200000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:22.981000', '0:00:29.373000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=47.32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=22.981</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:38.841000', '0:00:46.833000')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:21.140000')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:03:56.400000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:19.340000'), ('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:00:16.240000', '0:00:18.880000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>isophonics_72</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'D:min', 'G:7', 'C']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['C', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:42.694000', '0:01:52.530000')]</t>
+          <t>('0:00:32.074829', '0:00:37.705668')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:21.080000', '0:00:27.200000')]</t>
+          <t>('0:00:41.655000', '0:00:46.220000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=102.694']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=21.08']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>jaah_47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['Db:maj6', 'Eb:7', 'Ab:7', 'Db:maj6']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:00:30.580000', '0:00:38.640000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:59.900000', '0:01:09.840000')]</t>
+          <t>('0:00:44.400000', '0:00:51.260000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=30.58</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=59.9']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=44.4</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#'], ['A#:7', 'D#:min', 'G#:min/B']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:20.020000'), ('0:00:23.020000', '0:00:30.140000')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:53.940000'), ('0:00:25.260000', '0:00:34.280000')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=23.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_56</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+          <t>('0:00:12.120000', '0:00:17.320000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=57.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-56#t=21.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb:min', 'F', 'Bb:min', 'F']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:12.140000', '0:01:14.720000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:22.996837', '0:00:30.067314')]</t>
+          <t>('0:00:07.960000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=72.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=22.996837']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:07.640000', '0:00:17.660000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+          <t>('0:00:14.840000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=7.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=64.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=14.84</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['A', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:22.440000')]</t>
+          <t>('0:02:02.780000', '0:02:17.555000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:48.001000', '0:00:54.307000')]</t>
+          <t>('0:02:03.030000', '0:02:09.590000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab:7', 'Db']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:59.730000', '0:01:03.930000')]</t>
+          <t>('0:01:14.800000', '0:01:21.060000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:01.380000', '0:01:05.960000')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=61.38']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:21.722199', '0:00:26.760929'), ('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02'), ('0:01:58.440000', '0:02:01.680000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=121.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
